--- a/TranslateDate.xlsx
+++ b/TranslateDate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="22">
   <si>
     <t>English</t>
   </si>
@@ -79,12 +79,43 @@
   <si>
     <t>Irish</t>
   </si>
+  <si>
+    <t>rolemodname</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NeutralInModes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StartLogText</t>
+  </si>
+  <si>
+    <t>NeutralInModes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Create By oshurecat
+Thank You Play NeutralInModes </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制作:oshurecat
+NeutralInModesで遊んでくれてありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +152,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +201,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26340,79 +26384,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="37.5">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="187.5">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -26689,7 +26757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
